--- a/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#70#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#BM+Dem.xlsx
+++ b/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#70#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/Parameters_model#LR_name#BM+Dem.xlsx
@@ -426,25 +426,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.06576172821672553</v>
+        <v>-0.1827102537190493</v>
       </c>
       <c r="C2">
-        <v>1.053855606916273</v>
+        <v>0.4558593080520937</v>
       </c>
       <c r="D2">
-        <v>0.8347996177313638</v>
+        <v>0.3303429384616913</v>
       </c>
       <c r="E2">
-        <v>-0.00484162929184975</v>
+        <v>0.2255276547288188</v>
       </c>
       <c r="F2">
-        <v>0.1100348957443922</v>
+        <v>0.04684527038111667</v>
       </c>
       <c r="G2">
-        <v>-0.8665981772960415</v>
+        <v>-0.2870400793057949</v>
       </c>
       <c r="H2">
-        <v>-0.02435650417731192</v>
+        <v>-0.03538631896138755</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.04252987163055557</v>
+        <v>-0.2831102046247276</v>
       </c>
       <c r="C3">
-        <v>0.1663655032673499</v>
+        <v>0.5559720265697939</v>
       </c>
       <c r="D3">
-        <v>0.1754460913819021</v>
+        <v>0.5231836530601345</v>
       </c>
       <c r="E3">
-        <v>0.1065921445294435</v>
+        <v>0.2701999975524338</v>
       </c>
       <c r="F3">
-        <v>0.0191653016780367</v>
+        <v>0.3485574052980904</v>
       </c>
       <c r="G3">
-        <v>-0.05751130860807713</v>
+        <v>-0.5015449248116493</v>
       </c>
       <c r="H3">
-        <v>0.02583495484659075</v>
+        <v>-0.02262327137422276</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.06061825008092267</v>
+        <v>-0.295414182152836</v>
       </c>
       <c r="C4">
-        <v>0.8817949126587079</v>
+        <v>0.6354436718837783</v>
       </c>
       <c r="D4">
-        <v>0.8983289447831466</v>
+        <v>0.5914404134920223</v>
       </c>
       <c r="E4">
-        <v>-0.1136253994565686</v>
+        <v>0.1478408855651855</v>
       </c>
       <c r="F4">
-        <v>0.1343765286973431</v>
+        <v>-0.02709504820079947</v>
       </c>
       <c r="G4">
-        <v>-0.9561217706036053</v>
+        <v>-0.3997384192283434</v>
       </c>
       <c r="H4">
-        <v>0.008019445920387946</v>
+        <v>-0.2106429089313369</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.001093796872603274</v>
+        <v>-0.001557642142004756</v>
       </c>
       <c r="C5">
-        <v>0.002325094532945671</v>
+        <v>0.002822373442417404</v>
       </c>
       <c r="D5">
-        <v>0.003536157923931677</v>
+        <v>0.003427490540452458</v>
       </c>
       <c r="E5">
-        <v>0.00227141684475083</v>
+        <v>0.002603352091122002</v>
       </c>
       <c r="F5">
-        <v>0.0001695097204637847</v>
+        <v>0.0003407705256801785</v>
       </c>
       <c r="G5">
-        <v>-0.0007758953315576163</v>
+        <v>-0.0021454677177296</v>
       </c>
       <c r="H5">
-        <v>4.73635788664742E-05</v>
+        <v>0.0002938850817337768</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.02716307176045174</v>
+        <v>-0.2221036786841481</v>
       </c>
       <c r="C6">
-        <v>0.9022802920485551</v>
+        <v>0.388832811343728</v>
       </c>
       <c r="D6">
-        <v>0.6234284023619991</v>
+        <v>0.4425138125313168</v>
       </c>
       <c r="E6">
-        <v>0.01987536951428627</v>
+        <v>0.2981789753109799</v>
       </c>
       <c r="F6">
-        <v>-0.03412178662198975</v>
+        <v>0.03168177581107229</v>
       </c>
       <c r="G6">
-        <v>-0.8442617028312306</v>
+        <v>-0.3161867890340573</v>
       </c>
       <c r="H6">
-        <v>0.02545788930812843</v>
+        <v>-0.1306505268943417</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.09031145881678515</v>
+        <v>-0.2343513022185554</v>
       </c>
       <c r="C7">
-        <v>0.5174454613899786</v>
+        <v>0.411537293882979</v>
       </c>
       <c r="D7">
-        <v>0.394801760588394</v>
+        <v>0.4698208171781433</v>
       </c>
       <c r="E7">
-        <v>0.1109878121523519</v>
+        <v>0.3398525186230936</v>
       </c>
       <c r="F7">
-        <v>-0.05052184401722153</v>
+        <v>0.07175408060912485</v>
       </c>
       <c r="G7">
-        <v>-0.2175534458312119</v>
+        <v>-0.3445637031317162</v>
       </c>
       <c r="H7">
-        <v>0.04046894884218284</v>
+        <v>-0.03015400960837014</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.09785833427284933</v>
+        <v>-0.01229814325323973</v>
       </c>
       <c r="C8">
-        <v>0.8286856378066254</v>
+        <v>0.02686105596134335</v>
       </c>
       <c r="D8">
-        <v>0.7628028594773321</v>
+        <v>0.0257550621816052</v>
       </c>
       <c r="E8">
-        <v>0.2167862994273798</v>
+        <v>0.02149390973805651</v>
       </c>
       <c r="F8">
-        <v>0.2490243515951436</v>
+        <v>0.00836370004987888</v>
       </c>
       <c r="G8">
-        <v>-0.6787412228050661</v>
+        <v>-0.02024612794320491</v>
       </c>
       <c r="H8">
-        <v>-0.07673337666505177</v>
+        <v>-0.00306440478676088</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -608,25 +608,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-7.093122242720662E-06</v>
+        <v>-0.01434398844920958</v>
       </c>
       <c r="C9">
-        <v>0.002417492894458452</v>
+        <v>0.03040883090637999</v>
       </c>
       <c r="D9">
-        <v>0.002886569731666561</v>
+        <v>0.02597243483851464</v>
       </c>
       <c r="E9">
-        <v>0.001749624700638078</v>
+        <v>0.02662773899034358</v>
       </c>
       <c r="F9">
-        <v>-0.0003054779676855151</v>
+        <v>0.001448067443546886</v>
       </c>
       <c r="G9">
-        <v>-0.0007781999094243989</v>
+        <v>-0.02042841593263927</v>
       </c>
       <c r="H9">
-        <v>0.0004229908038734697</v>
+        <v>0.001553953079087456</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -634,25 +634,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.06283401985177903</v>
+        <v>-0.01463594852233161</v>
       </c>
       <c r="C10">
-        <v>0.3684839302136618</v>
+        <v>0.03213587643730183</v>
       </c>
       <c r="D10">
-        <v>0.4393546030750993</v>
+        <v>0.02839192236842973</v>
       </c>
       <c r="E10">
-        <v>0.08024078410859899</v>
+        <v>0.02227722532194941</v>
       </c>
       <c r="F10">
-        <v>0.08508342926611392</v>
+        <v>0.003071472462768398</v>
       </c>
       <c r="G10">
-        <v>-0.1979786842445505</v>
+        <v>-0.02021119501804172</v>
       </c>
       <c r="H10">
-        <v>-0.002109903981231321</v>
+        <v>-0.004841373448629441</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -660,25 +660,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.0363920763691603</v>
+        <v>-0.00189548857252917</v>
       </c>
       <c r="C11">
-        <v>0.8915507115297854</v>
+        <v>0.003499124346401796</v>
       </c>
       <c r="D11">
-        <v>0.6609086469221762</v>
+        <v>0.003478238501814301</v>
       </c>
       <c r="E11">
-        <v>0.1979660996495776</v>
+        <v>0.003002436736728007</v>
       </c>
       <c r="F11">
-        <v>-0.01074351229853278</v>
+        <v>0.0003494350939897066</v>
       </c>
       <c r="G11">
-        <v>-0.8958249440226841</v>
+        <v>-0.002144959101180169</v>
       </c>
       <c r="H11">
-        <v>-0.2491682221104071</v>
+        <v>0.0001985707230323722</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -686,25 +686,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.02589173548484015</v>
+        <v>-0.08505559457514381</v>
       </c>
       <c r="C12">
-        <v>0.72391571144089</v>
+        <v>0.1595823485793992</v>
       </c>
       <c r="D12">
-        <v>0.6102008140764689</v>
+        <v>0.2012281878379334</v>
       </c>
       <c r="E12">
-        <v>0.1700860699386987</v>
+        <v>0.1328405590242832</v>
       </c>
       <c r="F12">
-        <v>0.08763029485889406</v>
+        <v>0.01601935426870615</v>
       </c>
       <c r="G12">
-        <v>-0.6236068309233465</v>
+        <v>-0.1365799462432922</v>
       </c>
       <c r="H12">
-        <v>-0.01459570736915872</v>
+        <v>0.003811270550285642</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -712,25 +712,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.1070927176434573</v>
+        <v>-0.01273133587319</v>
       </c>
       <c r="C13">
-        <v>0.9343725471541187</v>
+        <v>0.02491846927558135</v>
       </c>
       <c r="D13">
-        <v>0.8786742671223149</v>
+        <v>0.03039875804304872</v>
       </c>
       <c r="E13">
-        <v>0.2940078030478489</v>
+        <v>0.0210302833995877</v>
       </c>
       <c r="F13">
-        <v>-0.0264170197579962</v>
+        <v>0.004770028144928542</v>
       </c>
       <c r="G13">
-        <v>-0.7435843351633592</v>
+        <v>-0.02027952780420362</v>
       </c>
       <c r="H13">
-        <v>-0.1931077216486799</v>
+        <v>-0.003125908205438684</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -738,25 +738,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-9.913606297903374E-06</v>
+        <v>-0.3041170919693202</v>
       </c>
       <c r="C14">
-        <v>0.00303245548960777</v>
+        <v>0.6952353516631895</v>
       </c>
       <c r="D14">
-        <v>0.002842334881252268</v>
+        <v>0.5647620414176081</v>
       </c>
       <c r="E14">
-        <v>0.001783906007674993</v>
+        <v>0.1386536404016778</v>
       </c>
       <c r="F14">
-        <v>-8.726082866970423E-05</v>
+        <v>0.1988622556396379</v>
       </c>
       <c r="G14">
-        <v>-0.0007785838949340309</v>
+        <v>-0.545037799811502</v>
       </c>
       <c r="H14">
-        <v>0.0003366026344293264</v>
+        <v>-0.01476733695792032</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -764,25 +764,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-1.755975820736644E-06</v>
+        <v>-0.01511599713029291</v>
       </c>
       <c r="C15">
-        <v>0.002247917622752582</v>
+        <v>0.02814119910463076</v>
       </c>
       <c r="D15">
-        <v>0.00221075488096899</v>
+        <v>0.03040618151181872</v>
       </c>
       <c r="E15">
-        <v>0.001532449346509383</v>
+        <v>0.02556093281902014</v>
       </c>
       <c r="F15">
-        <v>0.0003767962398990173</v>
+        <v>0.002803627455533821</v>
       </c>
       <c r="G15">
-        <v>-0.0007776296593170339</v>
+        <v>-0.02025979758878151</v>
       </c>
       <c r="H15">
-        <v>-0.0001921349634984036</v>
+        <v>-0.008244342621515088</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -790,25 +790,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.001005001130274164</v>
+        <v>-0.01505506035999571</v>
       </c>
       <c r="C16">
-        <v>0.002803040493366667</v>
+        <v>0.03236148844826822</v>
       </c>
       <c r="D16">
-        <v>0.002658237799814117</v>
+        <v>0.03088354565618716</v>
       </c>
       <c r="E16">
-        <v>0.002551182268686876</v>
+        <v>0.02112096630465074</v>
       </c>
       <c r="F16">
-        <v>0.0002209619327094924</v>
+        <v>0.001367853789389736</v>
       </c>
       <c r="G16">
-        <v>-0.0007765467517795066</v>
+        <v>-0.02021248281146979</v>
       </c>
       <c r="H16">
-        <v>0.0003757267491824519</v>
+        <v>-0.002317086369672406</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -816,25 +816,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.03167259179000952</v>
+        <v>-0.3270624550146005</v>
       </c>
       <c r="C17">
-        <v>0.4391703495175384</v>
+        <v>0.72087995330794</v>
       </c>
       <c r="D17">
-        <v>0.4856787482653742</v>
+        <v>0.4539751132312591</v>
       </c>
       <c r="E17">
-        <v>0.1958365479674605</v>
+        <v>0.2953685286007836</v>
       </c>
       <c r="F17">
-        <v>0.05453628285009952</v>
+        <v>0.09550659486781185</v>
       </c>
       <c r="G17">
-        <v>-0.3350839079978155</v>
+        <v>-0.3704346882020014</v>
       </c>
       <c r="H17">
-        <v>0.02249526731609031</v>
+        <v>-0.2002402219138523</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -842,25 +842,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.02026341094237052</v>
+        <v>-0.3835940200443078</v>
       </c>
       <c r="C18">
-        <v>0.4189186375051314</v>
+        <v>0.8997252656438482</v>
       </c>
       <c r="D18">
-        <v>0.6724995321906954</v>
+        <v>0.5863835877167474</v>
       </c>
       <c r="E18">
-        <v>0.3149602126928801</v>
+        <v>0.1705050054138917</v>
       </c>
       <c r="F18">
-        <v>0.1952097315454445</v>
+        <v>0.07095708412598671</v>
       </c>
       <c r="G18">
-        <v>-0.7427676376445446</v>
+        <v>-0.5830692565980019</v>
       </c>
       <c r="H18">
-        <v>-0.1501271336266329</v>
+        <v>-0.08683630936831739</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -868,25 +868,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-1.091030778998252E-05</v>
+        <v>-0.002033969610506718</v>
       </c>
       <c r="C19">
-        <v>0.002574400305217745</v>
+        <v>0.003642639629227592</v>
       </c>
       <c r="D19">
-        <v>0.003083595435300055</v>
+        <v>0.003776192871191048</v>
       </c>
       <c r="E19">
-        <v>0.002007896083547363</v>
+        <v>0.002961196994370742</v>
       </c>
       <c r="F19">
-        <v>0.000158417428754235</v>
+        <v>1.68190518115533E-06</v>
       </c>
       <c r="G19">
-        <v>-0.0007797572813067163</v>
+        <v>-0.002145868846767542</v>
       </c>
       <c r="H19">
-        <v>0.0002788634639851561</v>
+        <v>-0.0001724509022143633</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -894,25 +894,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.01464084881782482</v>
+        <v>-0.358704156430696</v>
       </c>
       <c r="C20">
-        <v>0.8942559752061335</v>
+        <v>0.5434798548503336</v>
       </c>
       <c r="D20">
-        <v>0.4499783615773874</v>
+        <v>0.8702587269156191</v>
       </c>
       <c r="E20">
-        <v>0.1521270926889257</v>
+        <v>0.07947533436674142</v>
       </c>
       <c r="F20">
-        <v>0.2415298704731641</v>
+        <v>0.2069203606364033</v>
       </c>
       <c r="G20">
-        <v>-0.7184122580165394</v>
+        <v>-0.4971422315181058</v>
       </c>
       <c r="H20">
-        <v>-0.02924458193218929</v>
+        <v>0.1184248770799689</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -920,25 +920,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.1225294177976778</v>
+        <v>-0.08988644576477738</v>
       </c>
       <c r="C21">
-        <v>0.5741785947558414</v>
+        <v>0.2116887269123695</v>
       </c>
       <c r="D21">
-        <v>0.5248855353204314</v>
+        <v>0.1522012917216918</v>
       </c>
       <c r="E21">
-        <v>0.1935711683378705</v>
+        <v>0.1380155631008181</v>
       </c>
       <c r="F21">
-        <v>-0.005648957662949938</v>
+        <v>0.03146586348399217</v>
       </c>
       <c r="G21">
-        <v>-0.2974841583397131</v>
+        <v>-0.141832614987309</v>
       </c>
       <c r="H21">
-        <v>0.1589184128450117</v>
+        <v>-0.002627572839464531</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -946,25 +946,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.1329479220992358</v>
+        <v>-0.1024206618688154</v>
       </c>
       <c r="C22">
-        <v>0.6960176337032321</v>
+        <v>0.1882493530150175</v>
       </c>
       <c r="D22">
-        <v>0.9560155505303465</v>
+        <v>0.2124122911172515</v>
       </c>
       <c r="E22">
-        <v>0.06104048449216075</v>
+        <v>0.1467505992469041</v>
       </c>
       <c r="F22">
-        <v>0.279729978087685</v>
+        <v>0.02503177502620684</v>
       </c>
       <c r="G22">
-        <v>-0.4719687386286788</v>
+        <v>-0.1307791447243372</v>
       </c>
       <c r="H22">
-        <v>-0.1790321205282547</v>
+        <v>-0.02144387135882556</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -972,25 +972,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.008083863154434656</v>
+        <v>-0.01383162141680707</v>
       </c>
       <c r="C23">
-        <v>0.02204449305794321</v>
+        <v>0.03143614188868975</v>
       </c>
       <c r="D23">
-        <v>0.02607283926645131</v>
+        <v>0.0266917558431581</v>
       </c>
       <c r="E23">
-        <v>0.02222629363564105</v>
+        <v>0.02255824759351979</v>
       </c>
       <c r="F23">
-        <v>0.00517505656187121</v>
+        <v>0.001652815197659043</v>
       </c>
       <c r="G23">
-        <v>-0.007513279247845075</v>
+        <v>-0.02028196818623617</v>
       </c>
       <c r="H23">
-        <v>-0.006136826820157512</v>
+        <v>0.001515366210852464</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -998,25 +998,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.06764870478521494</v>
+        <v>-0.2635042947417081</v>
       </c>
       <c r="C24">
-        <v>0.1759333049033488</v>
+        <v>0.5796759906584711</v>
       </c>
       <c r="D24">
-        <v>0.2261126031107704</v>
+        <v>0.4190676867077229</v>
       </c>
       <c r="E24">
-        <v>0.1137224489100172</v>
+        <v>0.4022609701595038</v>
       </c>
       <c r="F24">
-        <v>0.01116823624004004</v>
+        <v>0.02484039751644469</v>
       </c>
       <c r="G24">
-        <v>-0.05648476688367151</v>
+        <v>-0.4300206986246767</v>
       </c>
       <c r="H24">
-        <v>-0.04740800866431051</v>
+        <v>-0.02683199687694538</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1024,25 +1024,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.02070226096256473</v>
+        <v>-0.2866390051894993</v>
       </c>
       <c r="C25">
-        <v>0.6211360222054785</v>
+        <v>0.6286041158670971</v>
       </c>
       <c r="D25">
-        <v>0.9109799413911693</v>
+        <v>0.5916757544796335</v>
       </c>
       <c r="E25">
-        <v>-0.1309579873060993</v>
+        <v>0.129275874687771</v>
       </c>
       <c r="F25">
-        <v>0.2850674455422255</v>
+        <v>-0.02854453414298006</v>
       </c>
       <c r="G25">
-        <v>-0.6196290895213606</v>
+        <v>-0.3761197519129361</v>
       </c>
       <c r="H25">
-        <v>-0.1217925405657164</v>
+        <v>-0.2520013421008818</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1050,25 +1050,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.057274306423183</v>
+        <v>-0.001345396377067403</v>
       </c>
       <c r="C26">
-        <v>0.1428281217516265</v>
+        <v>0.002601283250317969</v>
       </c>
       <c r="D26">
-        <v>0.2240248426673869</v>
+        <v>0.002828291485656328</v>
       </c>
       <c r="E26">
-        <v>0.1006064373371486</v>
+        <v>0.002724869666704696</v>
       </c>
       <c r="F26">
-        <v>-0.02864035235929424</v>
+        <v>0.0004132272956665771</v>
       </c>
       <c r="G26">
-        <v>-0.06072314830241293</v>
+        <v>-0.002147481167694909</v>
       </c>
       <c r="H26">
-        <v>0.03321631980632887</v>
+        <v>-0.0004142205846257946</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1076,25 +1076,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.1003286086732968</v>
+        <v>-0.2696010215135068</v>
       </c>
       <c r="C27">
-        <v>0.6580015615655236</v>
+        <v>0.7375296270987215</v>
       </c>
       <c r="D27">
-        <v>0.6674336741950595</v>
+        <v>0.4005696642300724</v>
       </c>
       <c r="E27">
-        <v>0.1486876102778817</v>
+        <v>0.2190496574030873</v>
       </c>
       <c r="F27">
-        <v>0.1899500397353074</v>
+        <v>0.006783884574432276</v>
       </c>
       <c r="G27">
-        <v>-0.4401516409155091</v>
+        <v>-0.4758958685779631</v>
       </c>
       <c r="H27">
-        <v>-0.01942239228412389</v>
+        <v>-0.1281262437889273</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1102,25 +1102,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.103239753217131</v>
+        <v>-0.285869418200341</v>
       </c>
       <c r="C28">
-        <v>0.8037915989890281</v>
+        <v>0.5266208142390553</v>
       </c>
       <c r="D28">
-        <v>0.8491594081952943</v>
+        <v>0.784285173984146</v>
       </c>
       <c r="E28">
-        <v>0.05489586486614243</v>
+        <v>0.1158563065102718</v>
       </c>
       <c r="F28">
-        <v>0.3285067046213278</v>
+        <v>0.1362589181981499</v>
       </c>
       <c r="G28">
-        <v>-0.5631612609717425</v>
+        <v>-0.4939981040519674</v>
       </c>
       <c r="H28">
-        <v>0.1650966605672853</v>
+        <v>-0.06875531780786308</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1128,25 +1128,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.0828437940557053</v>
+        <v>-0.105071587274292</v>
       </c>
       <c r="C29">
-        <v>0.7331935500557608</v>
+        <v>0.2298608056071027</v>
       </c>
       <c r="D29">
-        <v>0.684828298992827</v>
+        <v>0.1803085354770383</v>
       </c>
       <c r="E29">
-        <v>0.3236637381675269</v>
+        <v>0.1479533398506087</v>
       </c>
       <c r="F29">
-        <v>0.1420101824685283</v>
+        <v>0.03553315197864684</v>
       </c>
       <c r="G29">
-        <v>-0.5506712592282389</v>
+        <v>-0.1298288774473029</v>
       </c>
       <c r="H29">
-        <v>-0.09482568880884271</v>
+        <v>0.009251007926605206</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1154,25 +1154,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.08987584035324835</v>
+        <v>-0.3786688383269841</v>
       </c>
       <c r="C30">
-        <v>0.6863007056215018</v>
+        <v>0.862483462175703</v>
       </c>
       <c r="D30">
-        <v>0.4720556571044471</v>
+        <v>0.5373304150346015</v>
       </c>
       <c r="E30">
-        <v>0.1459565637780292</v>
+        <v>0.3390104910021255</v>
       </c>
       <c r="F30">
-        <v>0.1622769815719931</v>
+        <v>0.07531454703435154</v>
       </c>
       <c r="G30">
-        <v>-0.8152553391008954</v>
+        <v>-0.5694304721037018</v>
       </c>
       <c r="H30">
-        <v>-0.1919201164208207</v>
+        <v>0.04669540681460205</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1180,25 +1180,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-2.565712991810656E-06</v>
+        <v>-0.08793924971036111</v>
       </c>
       <c r="C31">
-        <v>0.00229206559681453</v>
+        <v>0.1644807257949176</v>
       </c>
       <c r="D31">
-        <v>0.002636330934449281</v>
+        <v>0.1862215265154286</v>
       </c>
       <c r="E31">
-        <v>0.001922780164366303</v>
+        <v>0.1532926838248429</v>
       </c>
       <c r="F31">
-        <v>0.0003346527381415545</v>
+        <v>0.01646327430205608</v>
       </c>
       <c r="G31">
-        <v>-0.0007779648995344796</v>
+        <v>-0.1341816657734185</v>
       </c>
       <c r="H31">
-        <v>-9.676984958405551E-05</v>
+        <v>0.001721378819606609</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1206,25 +1206,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.1904321896828369</v>
+        <v>-0.3032203170850231</v>
       </c>
       <c r="C32">
-        <v>1.16114558289365</v>
+        <v>0.5717873859917312</v>
       </c>
       <c r="D32">
-        <v>0.8699835364577678</v>
+        <v>0.6534269105534933</v>
       </c>
       <c r="E32">
-        <v>0.2328108508812054</v>
+        <v>0.3075352272691638</v>
       </c>
       <c r="F32">
-        <v>-0.05106807685514541</v>
+        <v>0.008797399422961445</v>
       </c>
       <c r="G32">
-        <v>-0.6868878479036488</v>
+        <v>-0.4320928548841643</v>
       </c>
       <c r="H32">
-        <v>-0.005654039121171947</v>
+        <v>-0.1283925535143189</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1232,25 +1232,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.1010989733030832</v>
+        <v>-0.001396386425812611</v>
       </c>
       <c r="C33">
-        <v>0.4605537091327161</v>
+        <v>0.002755697072061314</v>
       </c>
       <c r="D33">
-        <v>0.5512713283010899</v>
+        <v>0.002890225726363176</v>
       </c>
       <c r="E33">
-        <v>0.2163167964369636</v>
+        <v>0.00226339163046567</v>
       </c>
       <c r="F33">
-        <v>0.0926396863687747</v>
+        <v>0.001482536346586107</v>
       </c>
       <c r="G33">
-        <v>-0.277441106243933</v>
+        <v>-0.002147106474714123</v>
       </c>
       <c r="H33">
-        <v>0.005935628330763705</v>
+        <v>-0.00046279325243182</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1258,25 +1258,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.1391375150536454</v>
+        <v>-0.01535368401786461</v>
       </c>
       <c r="C34">
-        <v>0.7685949915322997</v>
+        <v>0.02727456099178792</v>
       </c>
       <c r="D34">
-        <v>0.3961369112724026</v>
+        <v>0.03084857760892562</v>
       </c>
       <c r="E34">
-        <v>0.1871816519035256</v>
+        <v>0.02774286304167693</v>
       </c>
       <c r="F34">
-        <v>-0.01234090064051106</v>
+        <v>0.006439286390239625</v>
       </c>
       <c r="G34">
-        <v>-0.3262995764943327</v>
+        <v>-0.01995416890186318</v>
       </c>
       <c r="H34">
-        <v>0.09236291864595159</v>
+        <v>0.002012234790339597</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1284,25 +1284,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.09448354304401121</v>
+        <v>-0.001808048128535282</v>
       </c>
       <c r="C35">
-        <v>0.9023851741373115</v>
+        <v>0.002917978973870869</v>
       </c>
       <c r="D35">
-        <v>0.8405576149789773</v>
+        <v>0.003703232622266128</v>
       </c>
       <c r="E35">
-        <v>0.003205653575999247</v>
+        <v>0.002915228566168469</v>
       </c>
       <c r="F35">
-        <v>0.1437578968494281</v>
+        <v>0.0005922180918131349</v>
       </c>
       <c r="G35">
-        <v>-0.7627724421843611</v>
+        <v>-0.002145741243121931</v>
       </c>
       <c r="H35">
-        <v>0.06983277171793631</v>
+        <v>-0.0008399788259976773</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1310,25 +1310,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.02273396638043371</v>
+        <v>-0.01764464002779157</v>
       </c>
       <c r="C36">
-        <v>0.6099256527777539</v>
+        <v>0.02911235518769022</v>
       </c>
       <c r="D36">
-        <v>0.7343574509411663</v>
+        <v>0.03362478344978923</v>
       </c>
       <c r="E36">
-        <v>0.09744727526926118</v>
+        <v>0.03068011788327031</v>
       </c>
       <c r="F36">
-        <v>0.2977674008092369</v>
+        <v>0.0001271269303219125</v>
       </c>
       <c r="G36">
-        <v>-0.627273033345179</v>
+        <v>-0.01996094174795148</v>
       </c>
       <c r="H36">
-        <v>-0.02805457654291257</v>
+        <v>0.004963396986470561</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1336,25 +1336,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.04180381120735623</v>
+        <v>-0.001553018285893412</v>
       </c>
       <c r="C37">
-        <v>0.1879540009145004</v>
+        <v>0.002867318175783801</v>
       </c>
       <c r="D37">
-        <v>0.1774231363762251</v>
+        <v>0.00315992183626322</v>
       </c>
       <c r="E37">
-        <v>0.07067225437526098</v>
+        <v>0.002859691184148469</v>
       </c>
       <c r="F37">
-        <v>0.02093699355441448</v>
+        <v>0.000368574262037759</v>
       </c>
       <c r="G37">
-        <v>-0.06749584491580889</v>
+        <v>-0.002146746661368713</v>
       </c>
       <c r="H37">
-        <v>-0.01552250632198065</v>
+        <v>-0.0003157023554542934</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1362,25 +1362,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.1222147050990917</v>
+        <v>-0.3486302697220967</v>
       </c>
       <c r="C38">
-        <v>0.6848138242431171</v>
+        <v>0.7684326060838155</v>
       </c>
       <c r="D38">
-        <v>0.4566270060209343</v>
+        <v>0.7048970892253777</v>
       </c>
       <c r="E38">
-        <v>0.2078636339177383</v>
+        <v>0.03805113890938321</v>
       </c>
       <c r="F38">
-        <v>-0.0274969010188071</v>
+        <v>-0.03940041993265058</v>
       </c>
       <c r="G38">
-        <v>-0.322684604786351</v>
+        <v>-0.5808803715691752</v>
       </c>
       <c r="H38">
-        <v>0.01066647631099558</v>
+        <v>-0.3086555867165526</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1388,25 +1388,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.1108871009749774</v>
+        <v>-0.3150965512685429</v>
       </c>
       <c r="C39">
-        <v>0.6384469568726052</v>
+        <v>0.6422144433650658</v>
       </c>
       <c r="D39">
-        <v>0.4151893777146111</v>
+        <v>0.6045945911557576</v>
       </c>
       <c r="E39">
-        <v>0.2125734210683036</v>
+        <v>0.3687054011511539</v>
       </c>
       <c r="F39">
-        <v>0.1170029666444484</v>
+        <v>0.1081031548044778</v>
       </c>
       <c r="G39">
-        <v>-0.3276512608678377</v>
+        <v>-0.3933675687171201</v>
       </c>
       <c r="H39">
-        <v>-0.1179779299327273</v>
+        <v>0.04474739343778818</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1414,25 +1414,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-3.145046744930498E-06</v>
+        <v>-0.07868787574084402</v>
       </c>
       <c r="C40">
-        <v>0.002880927069235995</v>
+        <v>0.1822624315857042</v>
       </c>
       <c r="D40">
-        <v>0.002443789938589277</v>
+        <v>0.1601713966879079</v>
       </c>
       <c r="E40">
-        <v>0.001999374696570948</v>
+        <v>0.1318541613757231</v>
       </c>
       <c r="F40">
-        <v>0.0003171451414242999</v>
+        <v>-0.02688228611548643</v>
       </c>
       <c r="G40">
-        <v>-0.0007773457755389602</v>
+        <v>-0.1416196270467008</v>
       </c>
       <c r="H40">
-        <v>-0.0004470952038151016</v>
+        <v>-0.0205445383486482</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1440,25 +1440,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.03094315892826144</v>
+        <v>-0.345677046802241</v>
       </c>
       <c r="C41">
-        <v>0.69803519070029</v>
+        <v>0.8286026461466347</v>
       </c>
       <c r="D41">
-        <v>0.6443446226042653</v>
+        <v>0.5879620522351707</v>
       </c>
       <c r="E41">
-        <v>0.1904108191343434</v>
+        <v>0.2828087043750647</v>
       </c>
       <c r="F41">
-        <v>0.07626501631404159</v>
+        <v>0.04444676390357135</v>
       </c>
       <c r="G41">
-        <v>-0.580532330171215</v>
+        <v>-0.4925001526383638</v>
       </c>
       <c r="H41">
-        <v>-0.252300175411905</v>
+        <v>-0.1242685942357056</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1466,25 +1466,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.02980397705545954</v>
+        <v>-0.2415942588510083</v>
       </c>
       <c r="C42">
-        <v>0.7086474564726869</v>
+        <v>0.592716930373502</v>
       </c>
       <c r="D42">
-        <v>0.7768728655804911</v>
+        <v>0.5755385504741901</v>
       </c>
       <c r="E42">
-        <v>0.03105521951914117</v>
+        <v>0.06834524039203377</v>
       </c>
       <c r="F42">
-        <v>0.001476976310123887</v>
+        <v>0.2636934500622349</v>
       </c>
       <c r="G42">
-        <v>-0.7348893645530662</v>
+        <v>-0.5273302625595631</v>
       </c>
       <c r="H42">
-        <v>-0.2010653001220281</v>
+        <v>0.0570617927915665</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1492,25 +1492,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.1374866047644275</v>
+        <v>-0.09686893341582341</v>
       </c>
       <c r="C43">
-        <v>0.5322683579189763</v>
+        <v>0.1980961999445818</v>
       </c>
       <c r="D43">
-        <v>0.705493779743313</v>
+        <v>0.1906542224410845</v>
       </c>
       <c r="E43">
-        <v>0.01777372535249991</v>
+        <v>0.1444562239468208</v>
       </c>
       <c r="F43">
-        <v>0.1073244580114412</v>
+        <v>0.03600285509164981</v>
       </c>
       <c r="G43">
-        <v>-0.2308872676839313</v>
+        <v>-0.1339624911333104</v>
       </c>
       <c r="H43">
-        <v>0.007789326051375726</v>
+        <v>-0.02064473910564719</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1518,25 +1518,25 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.1403449706824808</v>
+        <v>-0.01484483035759599</v>
       </c>
       <c r="C44">
-        <v>0.5478706825002263</v>
+        <v>0.02792812022932278</v>
       </c>
       <c r="D44">
-        <v>0.6153947778407569</v>
+        <v>0.03038343502032078</v>
       </c>
       <c r="E44">
-        <v>0.1265264662779609</v>
+        <v>0.02296023233451603</v>
       </c>
       <c r="F44">
-        <v>0.03066566957563969</v>
+        <v>0.01079216713240126</v>
       </c>
       <c r="G44">
-        <v>-0.2434862939957731</v>
+        <v>-0.02035891198644603</v>
       </c>
       <c r="H44">
-        <v>0.00707280435861892</v>
+        <v>-0.007327323928375316</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1544,25 +1544,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.0171551574997245</v>
+        <v>-0.001704581456844882</v>
       </c>
       <c r="C45">
-        <v>0.9291463657156476</v>
+        <v>0.003436558196783192</v>
       </c>
       <c r="D45">
-        <v>0.646357062811068</v>
+        <v>0.003342422094651392</v>
       </c>
       <c r="E45">
-        <v>-0.08386517993426118</v>
+        <v>0.002518264273803149</v>
       </c>
       <c r="F45">
-        <v>0.03585506503439376</v>
+        <v>0.0002114069642935596</v>
       </c>
       <c r="G45">
-        <v>-0.8325780365441003</v>
+        <v>-0.002148239019161743</v>
       </c>
       <c r="H45">
-        <v>-0.1439962887615069</v>
+        <v>-0.0005532815558939102</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1570,25 +1570,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.05868037697229596</v>
+        <v>-0.2341810241923989</v>
       </c>
       <c r="C46">
-        <v>0.1788634713677638</v>
+        <v>0.5167635774034377</v>
       </c>
       <c r="D46">
-        <v>0.2029397156768949</v>
+        <v>0.6585868129630821</v>
       </c>
       <c r="E46">
-        <v>0.1097635116053992</v>
+        <v>0.02685932354016323</v>
       </c>
       <c r="F46">
-        <v>0.03771914955305822</v>
+        <v>0.07864739561431816</v>
       </c>
       <c r="G46">
-        <v>-0.06048031939482612</v>
+        <v>-0.4840938296780189</v>
       </c>
       <c r="H46">
-        <v>-0.0602168879529743</v>
+        <v>-0.07092726785704637</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1596,25 +1596,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-0.09099100052258409</v>
+        <v>-0.2372008844641238</v>
       </c>
       <c r="C47">
-        <v>0.4526263519123826</v>
+        <v>0.597420322031026</v>
       </c>
       <c r="D47">
-        <v>0.4019038064525366</v>
+        <v>0.3387823197751201</v>
       </c>
       <c r="E47">
-        <v>0.1334882431008396</v>
+        <v>0.288027895238684</v>
       </c>
       <c r="F47">
-        <v>0.1224916750079081</v>
+        <v>0.09697209630216702</v>
       </c>
       <c r="G47">
-        <v>-0.2058720729595867</v>
+        <v>-0.3592170619907425</v>
       </c>
       <c r="H47">
-        <v>-0.05198173160885816</v>
+        <v>0.008238634144367558</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1622,25 +1622,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.01479073793356986</v>
+        <v>-0.001658620633632145</v>
       </c>
       <c r="C48">
-        <v>0.8995855317735157</v>
+        <v>0.00274564315741329</v>
       </c>
       <c r="D48">
-        <v>0.5538767665913207</v>
+        <v>0.003570138344450762</v>
       </c>
       <c r="E48">
-        <v>0.1516540573984041</v>
+        <v>0.00276117826805316</v>
       </c>
       <c r="F48">
-        <v>0.05533139174496466</v>
+        <v>0.0007154524827118773</v>
       </c>
       <c r="G48">
-        <v>-0.7460782290923198</v>
+        <v>-0.002146849432707879</v>
       </c>
       <c r="H48">
-        <v>0.06505973351550137</v>
+        <v>0.0005775422042399682</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1648,25 +1648,25 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.009080782117277163</v>
+        <v>-0.01216868316764862</v>
       </c>
       <c r="C49">
-        <v>0.02862864467441429</v>
+        <v>0.02931905865553856</v>
       </c>
       <c r="D49">
-        <v>0.0246430973100304</v>
+        <v>0.0245833849705253</v>
       </c>
       <c r="E49">
-        <v>0.01969812240385125</v>
+        <v>0.02051207475322481</v>
       </c>
       <c r="F49">
-        <v>0.006897607444020449</v>
+        <v>0.003495215623651969</v>
       </c>
       <c r="G49">
-        <v>-0.007558413710328919</v>
+        <v>-0.0203665773759428</v>
       </c>
       <c r="H49">
-        <v>-0.005286282931930729</v>
+        <v>0.00178716365306866</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1674,25 +1674,25 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0.08710740924395775</v>
+        <v>-0.01496911960950536</v>
       </c>
       <c r="C50">
-        <v>0.8507013512383592</v>
+        <v>0.03075105332048817</v>
       </c>
       <c r="D50">
-        <v>0.6835984858645542</v>
+        <v>0.02995026646026793</v>
       </c>
       <c r="E50">
-        <v>0.06702503735787615</v>
+        <v>0.02337486850809184</v>
       </c>
       <c r="F50">
-        <v>0.1238322113744841</v>
+        <v>0.004680333300656839</v>
       </c>
       <c r="G50">
-        <v>-0.5190235520689478</v>
+        <v>-0.02027914563776982</v>
       </c>
       <c r="H50">
-        <v>0.05281087025366249</v>
+        <v>-0.004161725199394356</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1700,25 +1700,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.07267950350245969</v>
+        <v>-0.2194119232588512</v>
       </c>
       <c r="C51">
-        <v>1.008391393731766</v>
+        <v>0.4849131706484675</v>
       </c>
       <c r="D51">
-        <v>0.8179843988637254</v>
+        <v>0.4441045288587805</v>
       </c>
       <c r="E51">
-        <v>0.009967317692176755</v>
+        <v>0.2522422487936492</v>
       </c>
       <c r="F51">
-        <v>0.2115782640411497</v>
+        <v>0.1167702229144424</v>
       </c>
       <c r="G51">
-        <v>-0.8143718106910978</v>
+        <v>-0.3545796981710637</v>
       </c>
       <c r="H51">
-        <v>-0.001428153811308432</v>
+        <v>-0.106295912207705</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1726,25 +1726,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.04087645476426947</v>
+        <v>-0.01626724014998733</v>
       </c>
       <c r="C52">
-        <v>0.1887193339739982</v>
+        <v>0.03152707451880887</v>
       </c>
       <c r="D52">
-        <v>0.1761351339424777</v>
+        <v>0.02955406809887637</v>
       </c>
       <c r="E52">
-        <v>0.06551231996978685</v>
+        <v>0.02775966182196729</v>
       </c>
       <c r="F52">
-        <v>0.01021023523293341</v>
+        <v>0.005408088301392117</v>
       </c>
       <c r="G52">
-        <v>-0.06630459507708109</v>
+        <v>-0.02023815294729486</v>
       </c>
       <c r="H52">
-        <v>-0.0359285191379523</v>
+        <v>0.002083946510179843</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1752,25 +1752,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.05755664705316945</v>
+        <v>-0.2554126078075043</v>
       </c>
       <c r="C53">
-        <v>0.3570921178072081</v>
+        <v>0.5818385634701241</v>
       </c>
       <c r="D53">
-        <v>0.4134031621983119</v>
+        <v>0.6996184406052276</v>
       </c>
       <c r="E53">
-        <v>0.1705266339971535</v>
+        <v>-0.006094736043494783</v>
       </c>
       <c r="F53">
-        <v>0.02400150828168276</v>
+        <v>0.1829114584888403</v>
       </c>
       <c r="G53">
-        <v>-0.2218817183495304</v>
+        <v>-0.4543560533386161</v>
       </c>
       <c r="H53">
-        <v>0.005215590384392574</v>
+        <v>0.08269843866598735</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1778,25 +1778,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-1.05017057438662E-05</v>
+        <v>-0.08102356558822263</v>
       </c>
       <c r="C54">
-        <v>0.00256349175919458</v>
+        <v>0.173879500314243</v>
       </c>
       <c r="D54">
-        <v>0.003072661851134655</v>
+        <v>0.179394883154789</v>
       </c>
       <c r="E54">
-        <v>0.002014383987316324</v>
+        <v>0.1259660442793901</v>
       </c>
       <c r="F54">
-        <v>0.000128403187514441</v>
+        <v>0.0005489595505975756</v>
       </c>
       <c r="G54">
-        <v>-0.0007800657667058933</v>
+        <v>-0.1364275306170467</v>
       </c>
       <c r="H54">
-        <v>-0.0004123436799793719</v>
+        <v>0.01660287667748213</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1804,25 +1804,25 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.01167922966315861</v>
+        <v>-0.001505266568965914</v>
       </c>
       <c r="C55">
-        <v>0.6288904110469993</v>
+        <v>0.002774571996070276</v>
       </c>
       <c r="D55">
-        <v>0.7207215513208752</v>
+        <v>0.003460642775009037</v>
       </c>
       <c r="E55">
-        <v>0.08600733358929297</v>
+        <v>0.002342862851112433</v>
       </c>
       <c r="F55">
-        <v>0.08898942369747517</v>
+        <v>0.0005655557007482769</v>
       </c>
       <c r="G55">
-        <v>-0.6653872783297883</v>
+        <v>-0.002147601658445622</v>
       </c>
       <c r="H55">
-        <v>-0.07193701526702592</v>
+        <v>-0.0003953486232164683</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1830,25 +1830,25 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.008170865575730315</v>
+        <v>-0.001524424851560813</v>
       </c>
       <c r="C56">
-        <v>0.02317635832849733</v>
+        <v>0.002719411527615156</v>
       </c>
       <c r="D56">
-        <v>0.02918963216058432</v>
+        <v>0.003242765863757941</v>
       </c>
       <c r="E56">
-        <v>0.01859281105778682</v>
+        <v>0.00272063175051608</v>
       </c>
       <c r="F56">
-        <v>0.002229234273398225</v>
+        <v>0.0004936793882538326</v>
       </c>
       <c r="G56">
-        <v>-0.007594543818270046</v>
+        <v>-0.002146511836014036</v>
       </c>
       <c r="H56">
-        <v>0.00197029896273617</v>
+        <v>-0.0006917732380497642</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1856,25 +1856,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.009066887153110445</v>
+        <v>-0.200687084985578</v>
       </c>
       <c r="C57">
-        <v>0.5659324446921727</v>
+        <v>0.5091655513111459</v>
       </c>
       <c r="D57">
-        <v>0.7192308325554579</v>
+        <v>0.285706560338573</v>
       </c>
       <c r="E57">
-        <v>0.05611356562017974</v>
+        <v>0.2556580364635341</v>
       </c>
       <c r="F57">
-        <v>0.1887401473695016</v>
+        <v>0.00652109480033696</v>
       </c>
       <c r="G57">
-        <v>-0.599618880863827</v>
+        <v>-0.3395830547434918</v>
       </c>
       <c r="H57">
-        <v>0.02520316685691555</v>
+        <v>0.03034300520338337</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1882,25 +1882,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.07010424773177225</v>
+        <v>-0.3471501594411912</v>
       </c>
       <c r="C58">
-        <v>0.8300710599629293</v>
+        <v>0.7131474251963377</v>
       </c>
       <c r="D58">
-        <v>1.121593451796817</v>
+        <v>0.6024028996793479</v>
       </c>
       <c r="E58">
-        <v>-0.06842629981367623</v>
+        <v>0.3271626426541655</v>
       </c>
       <c r="F58">
-        <v>0.09079900692246355</v>
+        <v>0.03089648786303291</v>
       </c>
       <c r="G58">
-        <v>-0.7657168498698848</v>
+        <v>-0.5447417660118856</v>
       </c>
       <c r="H58">
-        <v>-0.2849356508056886</v>
+        <v>-0.00952991730103247</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1908,25 +1908,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.02046784144768323</v>
+        <v>-0.09058539020085297</v>
       </c>
       <c r="C59">
-        <v>0.6808814427347628</v>
+        <v>0.2275894955942404</v>
       </c>
       <c r="D59">
-        <v>0.9595420186480688</v>
+        <v>0.1536531966046384</v>
       </c>
       <c r="E59">
-        <v>0.004117313898509666</v>
+        <v>0.1226272116069519</v>
       </c>
       <c r="F59">
-        <v>0.2329226600655405</v>
+        <v>0.02507296211051381</v>
       </c>
       <c r="G59">
-        <v>-0.9916215384757209</v>
+        <v>-0.135113284796745</v>
       </c>
       <c r="H59">
-        <v>-0.05604232695927788</v>
+        <v>-0.01553154629437775</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1934,25 +1934,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.009697604911300986</v>
+        <v>-0.01669886884079626</v>
       </c>
       <c r="C60">
-        <v>0.02931312340432307</v>
+        <v>0.0333276632153089</v>
       </c>
       <c r="D60">
-        <v>0.029573936538147</v>
+        <v>0.03013011370552922</v>
       </c>
       <c r="E60">
-        <v>0.01540017207213612</v>
+        <v>0.02705639589578587</v>
       </c>
       <c r="F60">
-        <v>-0.0007115176307082036</v>
+        <v>0.002761669426022782</v>
       </c>
       <c r="G60">
-        <v>-0.007604060397854719</v>
+        <v>-0.0200507050915207</v>
       </c>
       <c r="H60">
-        <v>0.004800300955885351</v>
+        <v>-0.002252906068490455</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1960,25 +1960,25 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.1284073316728593</v>
+        <v>-0.001819484404491152</v>
       </c>
       <c r="C61">
-        <v>0.3875832342017941</v>
+        <v>0.003230555172084116</v>
       </c>
       <c r="D61">
-        <v>0.4851100094188329</v>
+        <v>0.00357690908732904</v>
       </c>
       <c r="E61">
-        <v>0.2767905727156251</v>
+        <v>0.002921769306657572</v>
       </c>
       <c r="F61">
-        <v>0.1183596464426035</v>
+        <v>3.038422180864519E-05</v>
       </c>
       <c r="G61">
-        <v>-0.1938400500368501</v>
+        <v>-0.002146208404453267</v>
       </c>
       <c r="H61">
-        <v>-0.131636778585146</v>
+        <v>-0.0005343332970777974</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1986,25 +1986,25 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-0.1478959381108623</v>
+        <v>-0.001704805440229085</v>
       </c>
       <c r="C62">
-        <v>0.5056872880829931</v>
+        <v>0.00316309704842723</v>
       </c>
       <c r="D62">
-        <v>0.4426328629200719</v>
+        <v>0.003423309131153393</v>
       </c>
       <c r="E62">
-        <v>0.1538003474803803</v>
+        <v>0.00278006544305821</v>
       </c>
       <c r="F62">
-        <v>0.0993162659163378</v>
+        <v>-9.68905259363643E-05</v>
       </c>
       <c r="G62">
-        <v>-0.150002686957742</v>
+        <v>-0.002143656272076389</v>
       </c>
       <c r="H62">
-        <v>-0.01190258003521806</v>
+        <v>-0.0004514075473300023</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2012,25 +2012,25 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.1409861636557875</v>
+        <v>-0.4172011986207066</v>
       </c>
       <c r="C63">
-        <v>1.036858279573706</v>
+        <v>0.7050442306797668</v>
       </c>
       <c r="D63">
-        <v>0.5989997934324216</v>
+        <v>0.9810871033441063</v>
       </c>
       <c r="E63">
-        <v>0.02838254205198965</v>
+        <v>0.07949664524062686</v>
       </c>
       <c r="F63">
-        <v>0.2238223659492057</v>
+        <v>0.3459740569065127</v>
       </c>
       <c r="G63">
-        <v>-1.275602924849265</v>
+        <v>-0.5460258101825751</v>
       </c>
       <c r="H63">
-        <v>0.03797502642827402</v>
+        <v>-0.3355661576331706</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2038,25 +2038,25 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.001059462606065565</v>
+        <v>-0.2012763300313111</v>
       </c>
       <c r="C64">
-        <v>0.002313053834566663</v>
+        <v>0.4537563638224918</v>
       </c>
       <c r="D64">
-        <v>0.003333029093989745</v>
+        <v>0.3112780366431843</v>
       </c>
       <c r="E64">
-        <v>0.002425588124938961</v>
+        <v>0.2521803305019427</v>
       </c>
       <c r="F64">
-        <v>0.0002402807385327451</v>
+        <v>0.1178877534185624</v>
       </c>
       <c r="G64">
-        <v>-0.0007756482446690829</v>
+        <v>-0.3190975116951572</v>
       </c>
       <c r="H64">
-        <v>-0.0002329341019815336</v>
+        <v>-0.07231618948034745</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2064,25 +2064,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.007669728051969114</v>
+        <v>-0.287704595512581</v>
       </c>
       <c r="C65">
-        <v>0.028140022310958</v>
+        <v>0.6142607256827628</v>
       </c>
       <c r="D65">
-        <v>0.02437770107314353</v>
+        <v>0.5341941666062694</v>
       </c>
       <c r="E65">
-        <v>0.01519109811326799</v>
+        <v>0.2953513540071221</v>
       </c>
       <c r="F65">
-        <v>0.006573983245028164</v>
+        <v>0.05471355081893638</v>
       </c>
       <c r="G65">
-        <v>-0.007582983482125375</v>
+        <v>-0.3885458264261244</v>
       </c>
       <c r="H65">
-        <v>-0.002328851137929708</v>
+        <v>-0.06355760874262632</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2090,25 +2090,25 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-1.043162209367818E-05</v>
+        <v>-0.070600253147641</v>
       </c>
       <c r="C66">
-        <v>0.002484990806186167</v>
+        <v>0.1651380839310769</v>
       </c>
       <c r="D66">
-        <v>0.002831956244842972</v>
+        <v>0.1552409913915798</v>
       </c>
       <c r="E66">
-        <v>0.002155130642959568</v>
+        <v>0.1204521578486712</v>
       </c>
       <c r="F66">
-        <v>0.001182041475337578</v>
+        <v>0.02982262078903684</v>
       </c>
       <c r="G66">
-        <v>-0.0007790381246051891</v>
+        <v>-0.1467423744639558</v>
       </c>
       <c r="H66">
-        <v>-1.196638820378189E-05</v>
+        <v>-0.0140688698315153</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2116,25 +2116,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0.06389994396339621</v>
+        <v>-0.01274133673537003</v>
       </c>
       <c r="C67">
-        <v>1.124852173596967</v>
+        <v>0.02853345870565929</v>
       </c>
       <c r="D67">
-        <v>0.7171858115953204</v>
+        <v>0.02750032404794183</v>
       </c>
       <c r="E67">
-        <v>0.1974729181278359</v>
+        <v>0.02078029298162637</v>
       </c>
       <c r="F67">
-        <v>0.1583959149269224</v>
+        <v>-0.002436126578602035</v>
       </c>
       <c r="G67">
-        <v>-0.9901094505287742</v>
+        <v>-0.02024739326057253</v>
       </c>
       <c r="H67">
-        <v>0.05509984213421382</v>
+        <v>0.002821446674250359</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2142,25 +2142,25 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-0.1212742504566212</v>
+        <v>-0.4285760363330924</v>
       </c>
       <c r="C68">
-        <v>0.5340247740317061</v>
+        <v>0.7579596673196919</v>
       </c>
       <c r="D68">
-        <v>0.3740511685032937</v>
+        <v>0.838073845344903</v>
       </c>
       <c r="E68">
-        <v>0.2277042200430043</v>
+        <v>0.1210546018585638</v>
       </c>
       <c r="F68">
-        <v>0.02668961309344561</v>
+        <v>0.2928479427168179</v>
       </c>
       <c r="G68">
-        <v>-0.2250785615807167</v>
+        <v>-0.6130392327682691</v>
       </c>
       <c r="H68">
-        <v>-0.03603849953083352</v>
+        <v>-0.3859200541624707</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2168,25 +2168,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.1113746043907092</v>
+        <v>-0.2126013266790466</v>
       </c>
       <c r="C69">
-        <v>0.4906765336819495</v>
+        <v>0.4680362218941951</v>
       </c>
       <c r="D69">
-        <v>0.4452151203733642</v>
+        <v>0.5163980778740828</v>
       </c>
       <c r="E69">
-        <v>0.09995857327425141</v>
+        <v>0.2869006854745189</v>
       </c>
       <c r="F69">
-        <v>0.1115609626498781</v>
+        <v>0.0402911977544042</v>
       </c>
       <c r="G69">
-        <v>-0.2048349140393428</v>
+        <v>-0.4286322248882157</v>
       </c>
       <c r="H69">
-        <v>0.1550282428305545</v>
+        <v>-0.0008229443328473522</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2194,25 +2194,25 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.0179543093030694</v>
+        <v>-0.2674688400240885</v>
       </c>
       <c r="C70">
-        <v>0.9127661042985726</v>
+        <v>0.6181690621937066</v>
       </c>
       <c r="D70">
-        <v>0.5748666519869526</v>
+        <v>0.4713279543789403</v>
       </c>
       <c r="E70">
-        <v>0.1862071103047257</v>
+        <v>0.1937946809870409</v>
       </c>
       <c r="F70">
-        <v>-0.06835469352960566</v>
+        <v>0.2532980146457456</v>
       </c>
       <c r="G70">
-        <v>-0.8041765488974674</v>
+        <v>-0.4853236879686158</v>
       </c>
       <c r="H70">
-        <v>-0.06127253783541561</v>
+        <v>-0.04926465751039744</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2220,25 +2220,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.03899496270384187</v>
+        <v>-0.00153770210105131</v>
       </c>
       <c r="C71">
-        <v>0.6274094556909902</v>
+        <v>0.002303478108345294</v>
       </c>
       <c r="D71">
-        <v>0.7708767650071116</v>
+        <v>0.00363126235174481</v>
       </c>
       <c r="E71">
-        <v>0.02421560835465502</v>
+        <v>0.002793725810069286</v>
       </c>
       <c r="F71">
-        <v>0.006418842675295016</v>
+        <v>-3.11283854705766E-05</v>
       </c>
       <c r="G71">
-        <v>-0.7549419269971813</v>
+        <v>-0.002146322522054734</v>
       </c>
       <c r="H71">
-        <v>-0.4337091299529367</v>
+        <v>-2.42344724895805E-05</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2246,25 +2246,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.008652080972824754</v>
+        <v>-0.001074168777165871</v>
       </c>
       <c r="C72">
-        <v>0.02504975153080614</v>
+        <v>0.002388415596493601</v>
       </c>
       <c r="D72">
-        <v>0.02938623335696791</v>
+        <v>0.002544199076507818</v>
       </c>
       <c r="E72">
-        <v>0.01797993542868047</v>
+        <v>0.002126821168800903</v>
       </c>
       <c r="F72">
-        <v>0.001316382689669739</v>
+        <v>0.0001165598451417477</v>
       </c>
       <c r="G72">
-        <v>-0.007551431356636092</v>
+        <v>-0.002147608209498725</v>
       </c>
       <c r="H72">
-        <v>0.002004125554646741</v>
+        <v>-0.0005196153319487148</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2272,25 +2272,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.09715118724495979</v>
+        <v>-0.2479889397598271</v>
       </c>
       <c r="C73">
-        <v>0.8717983511896251</v>
+        <v>0.5329503977159522</v>
       </c>
       <c r="D73">
-        <v>0.6661298330895213</v>
+        <v>0.4315383363964194</v>
       </c>
       <c r="E73">
-        <v>0.1241655467289322</v>
+        <v>0.3324703031815752</v>
       </c>
       <c r="F73">
-        <v>0.003835979988775738</v>
+        <v>0.1944989088287827</v>
       </c>
       <c r="G73">
-        <v>-0.5244693249042811</v>
+        <v>-0.4615334840994516</v>
       </c>
       <c r="H73">
-        <v>-0.09038187886162447</v>
+        <v>0.05627181241847055</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2298,25 +2298,25 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.02552478487579679</v>
+        <v>-0.001432491677797968</v>
       </c>
       <c r="C74">
-        <v>0.6502149374125039</v>
+        <v>0.002933830349108743</v>
       </c>
       <c r="D74">
-        <v>0.6846164713533753</v>
+        <v>0.003066712955408357</v>
       </c>
       <c r="E74">
-        <v>0.06807069842682263</v>
+        <v>0.002419996068325933</v>
       </c>
       <c r="F74">
-        <v>-0.06055283457657541</v>
+        <v>0.0002176816466669896</v>
       </c>
       <c r="G74">
-        <v>-0.6893796171839058</v>
+        <v>-0.002145447607479986</v>
       </c>
       <c r="H74">
-        <v>-0.02910272177744973</v>
+        <v>0.0005152870758030031</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2324,25 +2324,25 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-0.1742208054397797</v>
+        <v>-0.175412544455925</v>
       </c>
       <c r="C75">
-        <v>0.8248470018584594</v>
+        <v>0.4425810216606457</v>
       </c>
       <c r="D75">
-        <v>0.7384563369807121</v>
+        <v>0.3448217888438507</v>
       </c>
       <c r="E75">
-        <v>0.1349411955122354</v>
+        <v>0.1629438722546766</v>
       </c>
       <c r="F75">
-        <v>0.2242775527086108</v>
+        <v>0.03518823916459183</v>
       </c>
       <c r="G75">
-        <v>-0.4227127067356412</v>
+        <v>-0.3348291187059932</v>
       </c>
       <c r="H75">
-        <v>-0.03456002553510283</v>
+        <v>-0.07872496924420928</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2350,25 +2350,25 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-1.012942371558676E-05</v>
+        <v>-0.001409361048901945</v>
       </c>
       <c r="C76">
-        <v>0.00310595344630318</v>
+        <v>0.003182498754191161</v>
       </c>
       <c r="D76">
-        <v>0.002886689855439687</v>
+        <v>0.002361492379390189</v>
       </c>
       <c r="E76">
-        <v>0.001729028311133497</v>
+        <v>0.002785691230225189</v>
       </c>
       <c r="F76">
-        <v>9.047917527056297E-05</v>
+        <v>0.0002172617159721929</v>
       </c>
       <c r="G76">
-        <v>-0.0007796027140411806</v>
+        <v>-0.002147146819221666</v>
       </c>
       <c r="H76">
-        <v>8.511217779969707E-05</v>
+        <v>-0.000449861600755598</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2376,25 +2376,25 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-0.08227906005069838</v>
+        <v>-0.01164915356392985</v>
       </c>
       <c r="C77">
-        <v>0.4110505157868589</v>
+        <v>0.01770486094644473</v>
       </c>
       <c r="D77">
-        <v>0.6233058612410201</v>
+        <v>0.03208800467512124</v>
       </c>
       <c r="E77">
-        <v>0.1208871224427473</v>
+        <v>0.02083423863275707</v>
       </c>
       <c r="F77">
-        <v>0.1248384328918497</v>
+        <v>0.002381039902366511</v>
       </c>
       <c r="G77">
-        <v>-0.3062106109737535</v>
+        <v>-0.02027493207241</v>
       </c>
       <c r="H77">
-        <v>0.06149374663604176</v>
+        <v>-0.005639889654357771</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2402,25 +2402,25 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-1.052840708660688E-05</v>
+        <v>-0.0940648245158896</v>
       </c>
       <c r="C78">
-        <v>0.002952260957017043</v>
+        <v>0.219945496348994</v>
       </c>
       <c r="D78">
-        <v>0.00293499995530572</v>
+        <v>0.1810082369590688</v>
       </c>
       <c r="E78">
-        <v>0.00178020843877339</v>
+        <v>0.1111581528059649</v>
       </c>
       <c r="F78">
-        <v>0.0008995091724293913</v>
+        <v>0.03640688149371501</v>
       </c>
       <c r="G78">
-        <v>-0.000778834950661442</v>
+        <v>-0.1390753540287205</v>
       </c>
       <c r="H78">
-        <v>-0.0004176095088293286</v>
+        <v>0.01009182874011348</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2428,25 +2428,25 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-0.06253828888744026</v>
+        <v>-0.08986878413849797</v>
       </c>
       <c r="C79">
-        <v>0.2271045028956419</v>
+        <v>0.2057643305603395</v>
       </c>
       <c r="D79">
-        <v>0.185317803746382</v>
+        <v>0.1801710872213165</v>
       </c>
       <c r="E79">
-        <v>0.08557486735959326</v>
+        <v>0.1160384579061354</v>
       </c>
       <c r="F79">
-        <v>0.01319751494498998</v>
+        <v>0.05170829895844161</v>
       </c>
       <c r="G79">
-        <v>-0.06337513478565485</v>
+        <v>-0.1436476145147972</v>
       </c>
       <c r="H79">
-        <v>0.01626258794686037</v>
+        <v>0.001035848435580477</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2454,25 +2454,25 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.01042773019359861</v>
+        <v>-0.0013155491079167</v>
       </c>
       <c r="C80">
-        <v>0.02018941223242799</v>
+        <v>0.00254779655770982</v>
       </c>
       <c r="D80">
-        <v>0.03721365610124548</v>
+        <v>0.002874824460537514</v>
       </c>
       <c r="E80">
-        <v>0.01769785625009124</v>
+        <v>0.002657403781437776</v>
       </c>
       <c r="F80">
-        <v>-0.0001819406700638233</v>
+        <v>-6.024484389776569E-05</v>
       </c>
       <c r="G80">
-        <v>-0.007526816734646709</v>
+        <v>-0.002148671613493965</v>
       </c>
       <c r="H80">
-        <v>0.0005128889630826965</v>
+        <v>-0.0001308025289546186</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2480,25 +2480,25 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-0.07853761534878959</v>
+        <v>-0.001287332925957781</v>
       </c>
       <c r="C81">
-        <v>0.4934335512508988</v>
+        <v>0.002635678728385141</v>
       </c>
       <c r="D81">
-        <v>0.3527684759120939</v>
+        <v>0.00232979058641937</v>
       </c>
       <c r="E81">
-        <v>0.177344252338395</v>
+        <v>0.002717875246151174</v>
       </c>
       <c r="F81">
-        <v>0.04909637925009983</v>
+        <v>0.0008180493558211313</v>
       </c>
       <c r="G81">
-        <v>-0.2252941801704771</v>
+        <v>-0.002148910284796084</v>
       </c>
       <c r="H81">
-        <v>-0.04023726501039893</v>
+        <v>-0.0009186879332674926</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2506,25 +2506,25 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.00832678781914231</v>
+        <v>-0.2619206312459181</v>
       </c>
       <c r="C82">
-        <v>0.02526943651975835</v>
+        <v>0.5667102140974031</v>
       </c>
       <c r="D82">
-        <v>0.02587409485878169</v>
+        <v>0.5034615187196618</v>
       </c>
       <c r="E82">
-        <v>0.02123722941997736</v>
+        <v>0.2295036534485683</v>
       </c>
       <c r="F82">
-        <v>0.003340420767259718</v>
+        <v>-0.06445599349769575</v>
       </c>
       <c r="G82">
-        <v>-0.007616038123383424</v>
+        <v>-0.3420200990973123</v>
       </c>
       <c r="H82">
-        <v>0.00131349852163705</v>
+        <v>0.007014483909105532</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2532,25 +2532,25 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.1372071151029146</v>
+        <v>-0.139047474561819</v>
       </c>
       <c r="C83">
-        <v>0.6236442060487111</v>
+        <v>0.2330798876323252</v>
       </c>
       <c r="D83">
-        <v>1.067662927069371</v>
+        <v>0.2085432809928933</v>
       </c>
       <c r="E83">
-        <v>0.1014051254487953</v>
+        <v>0.1949663118500409</v>
       </c>
       <c r="F83">
-        <v>0.2319094909252355</v>
+        <v>0.0741340645931049</v>
       </c>
       <c r="G83">
-        <v>-0.5583738387722375</v>
+        <v>-0.1304849929115964</v>
       </c>
       <c r="H83">
-        <v>-0.1386647588167521</v>
+        <v>-0.05564799329273912</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2558,25 +2558,25 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-0.1436291060262934</v>
+        <v>-0.001880377996536077</v>
       </c>
       <c r="C84">
-        <v>0.5212211658096831</v>
+        <v>0.003440221645314002</v>
       </c>
       <c r="D84">
-        <v>0.7260646626143262</v>
+        <v>0.003255025238356698</v>
       </c>
       <c r="E84">
-        <v>0.08676552645068118</v>
+        <v>0.002961568254901567</v>
       </c>
       <c r="F84">
-        <v>0.05152783806611812</v>
+        <v>0.001116195957685779</v>
       </c>
       <c r="G84">
-        <v>-0.2649727225660044</v>
+        <v>-0.002145664361406817</v>
       </c>
       <c r="H84">
-        <v>-0.2390586225395113</v>
+        <v>-0.0009350521946689551</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2584,25 +2584,25 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-0.05227425088415186</v>
+        <v>-0.09915145265852769</v>
       </c>
       <c r="C85">
-        <v>0.6972715003823726</v>
+        <v>0.2026184490967391</v>
       </c>
       <c r="D85">
-        <v>0.9655052132225186</v>
+        <v>0.1987564377336401</v>
       </c>
       <c r="E85">
-        <v>-0.0631828936757876</v>
+        <v>0.1353719255386653</v>
       </c>
       <c r="F85">
-        <v>0.1830719623774832</v>
+        <v>-0.01516708924389965</v>
       </c>
       <c r="G85">
-        <v>-0.632685835301571</v>
+        <v>-0.1330904080256158</v>
       </c>
       <c r="H85">
-        <v>-0.2598653627231191</v>
+        <v>0.02244143896399337</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2610,25 +2610,25 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.1381440577288925</v>
+        <v>-0.01498558361657966</v>
       </c>
       <c r="C86">
-        <v>0.6161071400338235</v>
+        <v>0.02929533985164936</v>
       </c>
       <c r="D86">
-        <v>0.6686117991786966</v>
+        <v>0.03126387353201272</v>
       </c>
       <c r="E86">
-        <v>0.1479329331074345</v>
+        <v>0.02435780156469774</v>
       </c>
       <c r="F86">
-        <v>0.003092025188406647</v>
+        <v>-0.0001719359030187991</v>
       </c>
       <c r="G86">
-        <v>-0.3186103309983918</v>
+        <v>-0.02021556583396735</v>
       </c>
       <c r="H86">
-        <v>-0.105093568262671</v>
+        <v>0.002044985341782659</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2636,25 +2636,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-0.01844702770833073</v>
+        <v>-0.09159691788390906</v>
       </c>
       <c r="C87">
-        <v>0.8797997989843112</v>
+        <v>0.1946762683271845</v>
       </c>
       <c r="D87">
-        <v>0.7412070504572115</v>
+        <v>0.1875097291688269</v>
       </c>
       <c r="E87">
-        <v>0.0927261560938988</v>
+        <v>0.1206014410400814</v>
       </c>
       <c r="F87">
-        <v>0.1078119018186333</v>
+        <v>0.06294386706819959</v>
       </c>
       <c r="G87">
-        <v>-0.7841101285087089</v>
+        <v>-0.1365239220010918</v>
       </c>
       <c r="H87">
-        <v>-0.04919890472653218</v>
+        <v>-0.0301544999426791</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2662,25 +2662,25 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.0253833980440158</v>
+        <v>-0.2498068114877233</v>
       </c>
       <c r="C88">
-        <v>0.7612791570170822</v>
+        <v>0.5167787275737382</v>
       </c>
       <c r="D88">
-        <v>0.5087372698710282</v>
+        <v>0.5458965786028706</v>
       </c>
       <c r="E88">
-        <v>0.1557775580913079</v>
+        <v>0.2198280188575872</v>
       </c>
       <c r="F88">
-        <v>0.2290159944441479</v>
+        <v>0.05826770963105141</v>
       </c>
       <c r="G88">
-        <v>-0.6107516091555386</v>
+        <v>-0.378317295263607</v>
       </c>
       <c r="H88">
-        <v>-0.1476701690683621</v>
+        <v>-0.003897784490349558</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2688,25 +2688,25 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-9.617400735043947E-06</v>
+        <v>-0.2083032379005497</v>
       </c>
       <c r="C89">
-        <v>0.002745202604296924</v>
+        <v>0.5099433830876481</v>
       </c>
       <c r="D89">
-        <v>0.002860754249996056</v>
+        <v>0.3481951765061322</v>
       </c>
       <c r="E89">
-        <v>0.001910911858629432</v>
+        <v>0.2161119812329425</v>
       </c>
       <c r="F89">
-        <v>0.0008956213222970896</v>
+        <v>-0.02793322539746741</v>
       </c>
       <c r="G89">
-        <v>-0.0007801092777491109</v>
+        <v>-0.2865800793120353</v>
       </c>
       <c r="H89">
-        <v>0.0004644027497541229</v>
+        <v>0.02041586160335575</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2714,25 +2714,25 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.06906531148410494</v>
+        <v>-0.3254796245833363</v>
       </c>
       <c r="C90">
-        <v>0.7348267031643929</v>
+        <v>0.6809007341137908</v>
       </c>
       <c r="D90">
-        <v>0.711573373143472</v>
+        <v>0.594469970681651</v>
       </c>
       <c r="E90">
-        <v>0.06454817382249597</v>
+        <v>0.199734640778525</v>
       </c>
       <c r="F90">
-        <v>0.4351754221042748</v>
+        <v>0.3240479025999616</v>
       </c>
       <c r="G90">
-        <v>-0.9493793186680513</v>
+        <v>-0.4531347977815974</v>
       </c>
       <c r="H90">
-        <v>-0.07349808521472616</v>
+        <v>0.1144024964909045</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2740,25 +2740,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.07300919193936303</v>
+        <v>-0.01380550611142562</v>
       </c>
       <c r="C91">
-        <v>0.4390628333686983</v>
+        <v>0.03185325269085434</v>
       </c>
       <c r="D91">
-        <v>0.3916797812430299</v>
+        <v>0.02609445556104349</v>
       </c>
       <c r="E91">
-        <v>0.1143713638744476</v>
+        <v>0.02223933219670809</v>
       </c>
       <c r="F91">
-        <v>0.1032209283829096</v>
+        <v>0.001381385776447989</v>
       </c>
       <c r="G91">
-        <v>-0.1946706343552154</v>
+        <v>-0.02043281494224478</v>
       </c>
       <c r="H91">
-        <v>0.01283989227708765</v>
+        <v>-0.003114091502481826</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2766,25 +2766,25 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.05526329067720707</v>
+        <v>-0.001546764882579595</v>
       </c>
       <c r="C92">
-        <v>0.1662963108040628</v>
+        <v>0.002964838679423183</v>
       </c>
       <c r="D92">
-        <v>0.2128098111859401</v>
+        <v>0.003298390950883512</v>
       </c>
       <c r="E92">
-        <v>0.1034455620749543</v>
+        <v>0.002590264246207016</v>
       </c>
       <c r="F92">
-        <v>0.02869137241750621</v>
+        <v>0.0003064991003703624</v>
       </c>
       <c r="G92">
-        <v>-0.05824458561443886</v>
+        <v>-0.002147604920168186</v>
       </c>
       <c r="H92">
-        <v>0.005003443972675574</v>
+        <v>-0.0002758974313969433</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2792,25 +2792,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.01682641965227816</v>
+        <v>-0.0156209048244214</v>
       </c>
       <c r="C93">
-        <v>0.5517263933368214</v>
+        <v>0.02958713268045771</v>
       </c>
       <c r="D93">
-        <v>0.6035180269986063</v>
+        <v>0.03014196196580357</v>
       </c>
       <c r="E93">
-        <v>0.1475927925672403</v>
+        <v>0.02725793816543463</v>
       </c>
       <c r="F93">
-        <v>0.3218504956007005</v>
+        <v>0.003786307382065616</v>
       </c>
       <c r="G93">
-        <v>-0.716906110271484</v>
+        <v>-0.02017408083633676</v>
       </c>
       <c r="H93">
-        <v>0.1926479491230013</v>
+        <v>0.003228898363795669</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2818,25 +2818,25 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.04146855944445728</v>
+        <v>-0.1904643861670376</v>
       </c>
       <c r="C94">
-        <v>0.7005214617699006</v>
+        <v>0.3828954714790353</v>
       </c>
       <c r="D94">
-        <v>0.5427389870388406</v>
+        <v>0.3066183730829712</v>
       </c>
       <c r="E94">
-        <v>0.1811820038294698</v>
+        <v>0.348440818701191</v>
       </c>
       <c r="F94">
-        <v>0.1920062305146912</v>
+        <v>0.1081992572758957</v>
       </c>
       <c r="G94">
-        <v>-0.7601746669633523</v>
+        <v>-0.2801623143305119</v>
       </c>
       <c r="H94">
-        <v>0.06014472642438719</v>
+        <v>0.02598613223481696</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2844,25 +2844,25 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-3.048719814020954E-06</v>
+        <v>-0.3347290796055477</v>
       </c>
       <c r="C95">
-        <v>0.002782336355756925</v>
+        <v>0.6302402277128444</v>
       </c>
       <c r="D95">
-        <v>0.002338418973067663</v>
+        <v>0.852558439386941</v>
       </c>
       <c r="E95">
-        <v>0.001800944015103283</v>
+        <v>0.05073686052118836</v>
       </c>
       <c r="F95">
-        <v>0.001213475524940014</v>
+        <v>0.216023807969949</v>
       </c>
       <c r="G95">
-        <v>-0.0007778615366030688</v>
+        <v>-0.5871424067070486</v>
       </c>
       <c r="H95">
-        <v>-0.0004672625403170873</v>
+        <v>-0.02664130943347339</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2870,25 +2870,25 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.009337121406961522</v>
+        <v>-0.326099685362756</v>
       </c>
       <c r="C96">
-        <v>0.03217937650402692</v>
+        <v>0.7683261870654653</v>
       </c>
       <c r="D96">
-        <v>0.02620529489707307</v>
+        <v>0.6584438040327274</v>
       </c>
       <c r="E96">
-        <v>0.01358919334117553</v>
+        <v>0.2413239032142232</v>
       </c>
       <c r="F96">
-        <v>-0.004978338798674876</v>
+        <v>0.01927225010858303</v>
       </c>
       <c r="G96">
-        <v>-0.007514899924255595</v>
+        <v>-0.5197843998722392</v>
       </c>
       <c r="H96">
-        <v>-0.001775186384178537</v>
+        <v>0.0001263765893095977</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2896,25 +2896,25 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.1096068431322394</v>
+        <v>-0.01130272715280066</v>
       </c>
       <c r="C97">
-        <v>0.3783752362376044</v>
+        <v>0.02774840883423299</v>
       </c>
       <c r="D97">
-        <v>0.4362853681924469</v>
+        <v>0.02697122738453235</v>
       </c>
       <c r="E97">
-        <v>0.2823745393268349</v>
+        <v>0.01535231876932048</v>
       </c>
       <c r="F97">
-        <v>0.04496092627916459</v>
+        <v>-0.0001373827629656334</v>
       </c>
       <c r="G97">
-        <v>-0.2039716650628335</v>
+        <v>-0.0204863087375478</v>
       </c>
       <c r="H97">
-        <v>0.1092405895040842</v>
+        <v>-0.001811860232769918</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2922,25 +2922,25 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.06505512817583849</v>
+        <v>-0.001532912499314561</v>
       </c>
       <c r="C98">
-        <v>0.3500092381664145</v>
+        <v>0.002777161407897105</v>
       </c>
       <c r="D98">
-        <v>0.4431175741659337</v>
+        <v>0.003218861415868954</v>
       </c>
       <c r="E98">
-        <v>0.1629856717421996</v>
+        <v>0.002821990354258704</v>
       </c>
       <c r="F98">
-        <v>-0.02156908056851944</v>
+        <v>0.0003171911626003126</v>
       </c>
       <c r="G98">
-        <v>-0.2033243090942441</v>
+        <v>-0.002147623828176938</v>
       </c>
       <c r="H98">
-        <v>-0.008843380003942216</v>
+        <v>0.0002644821157879254</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2948,25 +2948,25 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.07244819103522782</v>
+        <v>-0.3036596066135077</v>
       </c>
       <c r="C99">
-        <v>0.7433283161850557</v>
+        <v>0.4811875230595071</v>
       </c>
       <c r="D99">
-        <v>0.7391438331060658</v>
+        <v>0.4817967242797868</v>
       </c>
       <c r="E99">
-        <v>0.1236517370265229</v>
+        <v>0.539504211403451</v>
       </c>
       <c r="F99">
-        <v>-0.08611537415213399</v>
+        <v>-0.0374454976470535</v>
       </c>
       <c r="G99">
-        <v>-0.8649898544232772</v>
+        <v>-0.4409905436134693</v>
       </c>
       <c r="H99">
-        <v>-0.04507178622229933</v>
+        <v>-0.1138342708525356</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2974,25 +2974,25 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.1741082393049189</v>
+        <v>-0.001787438814208079</v>
       </c>
       <c r="C100">
-        <v>0.5233729227954779</v>
+        <v>0.00254140682274631</v>
       </c>
       <c r="D100">
-        <v>0.7349100658833033</v>
+        <v>0.003728842205421641</v>
       </c>
       <c r="E100">
-        <v>0.2065907835325112</v>
+        <v>0.003316267377104325</v>
       </c>
       <c r="F100">
-        <v>0.03791972941453759</v>
+        <v>-0.0001419626579149164</v>
       </c>
       <c r="G100">
-        <v>-0.275497435672804</v>
+        <v>-0.002143657787353927</v>
       </c>
       <c r="H100">
-        <v>-0.1427971513528873</v>
+        <v>-3.521396591872354E-06</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3000,25 +3000,25 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.09595385985746405</v>
+        <v>-0.01446617097062065</v>
       </c>
       <c r="C101">
-        <v>0.5879887108077111</v>
+        <v>0.02571114478446866</v>
       </c>
       <c r="D101">
-        <v>0.657089137625677</v>
+        <v>0.03093360332230575</v>
       </c>
       <c r="E101">
-        <v>0.07846116282775699</v>
+        <v>0.02592264144292154</v>
       </c>
       <c r="F101">
-        <v>0.01555758501703447</v>
+        <v>0.004605709465610511</v>
       </c>
       <c r="G101">
-        <v>-0.3842349578445047</v>
+        <v>-0.02033775344904487</v>
       </c>
       <c r="H101">
-        <v>0.05737503321598772</v>
+        <v>0.001902881248273549</v>
       </c>
     </row>
   </sheetData>
